--- a/test_data/electrical/mock_db.xlsx
+++ b/test_data/electrical/mock_db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="542"/>
   </bookViews>
   <sheets>
     <sheet name="static_cable" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="transformer" sheetId="5" r:id="rId5"/>
     <sheet name="collection_point" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -32,9 +32,6 @@
     <t>Number of Conductors</t>
   </si>
   <si>
-    <t>Rated Voltage</t>
-  </si>
-  <si>
     <t>Rated Current in Air</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Max Cable Area</t>
+  </si>
+  <si>
+    <t>Rated Voltage (U)</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,7 +677,7 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
@@ -702,61 +702,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -818,7 +818,7 @@
         <v>600</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -880,7 +880,7 @@
         <v>700</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -942,7 +942,7 @@
         <v>800</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,7 +1072,7 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11">
         <v>3</v>
@@ -1213,15 +1213,15 @@
         <v>600</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="11">
         <v>3</v>
@@ -1275,15 +1275,15 @@
         <v>800</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
@@ -1337,7 +1337,7 @@
         <v>1000</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,19 +1489,20 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="1022" width="9.1796875"/>
@@ -1512,61 +1513,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -1574,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="17">
         <v>3</v>
@@ -1619,7 +1620,7 @@
         <v>40</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="19">
         <v>250</v>
@@ -1628,7 +1629,7 @@
         <v>150000</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -1636,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="17">
         <v>3</v>
@@ -1681,7 +1682,7 @@
         <v>40</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" s="19">
         <v>250</v>
@@ -1690,7 +1691,7 @@
         <v>200000</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1698,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="17">
         <v>3</v>
@@ -1743,7 +1744,7 @@
         <v>40</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" s="19">
         <v>250</v>
@@ -1752,7 +1753,7 @@
         <v>200000</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -1790,7 +1791,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,19 +1799,20 @@
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="1022" width="8.54296875"/>
@@ -1821,61 +1823,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -1883,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="23">
         <v>3</v>
@@ -1928,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="25">
         <v>250</v>
@@ -1937,7 +1939,7 @@
         <v>100000</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -1945,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23">
         <v>3</v>
@@ -1990,7 +1992,7 @@
         <v>40</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" s="25">
         <v>250</v>
@@ -1999,7 +2001,7 @@
         <v>150000</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -2007,7 +2009,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="23">
         <v>3</v>
@@ -2052,7 +2054,7 @@
         <v>40</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" s="25">
         <v>250</v>
@@ -2061,7 +2063,7 @@
         <v>150000</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2074,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2104,55 +2106,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>54</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -2160,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
@@ -2197,7 +2199,7 @@
         <v>-5</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="31">
         <v>6</v>
@@ -2206,7 +2208,7 @@
         <v>50000</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2214,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="29">
         <v>2</v>
@@ -2251,7 +2253,7 @@
         <v>-5</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="31">
         <v>6</v>
@@ -2260,7 +2262,7 @@
         <v>50000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2268,7 +2270,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="29">
         <v>2</v>
@@ -2305,7 +2307,7 @@
         <v>-5</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" s="31">
         <v>6</v>
@@ -2314,7 +2316,7 @@
         <v>50000</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2327,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2365,76 +2367,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="P1" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
@@ -2442,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="34">
         <v>4</v>
@@ -2451,10 +2453,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="34">
         <v>6600</v>
@@ -2511,7 +2513,7 @@
         <v>150000</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -2519,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="34">
         <v>4</v>
@@ -2528,10 +2530,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="34">
         <v>11000</v>
@@ -2588,7 +2590,7 @@
         <v>150000</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -2596,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="34">
         <v>4</v>
@@ -2605,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="34">
         <v>6600</v>
@@ -2665,7 +2667,7 @@
         <v>150000</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -2673,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="34">
         <v>4</v>
@@ -2682,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="34">
         <v>6600</v>
@@ -2742,7 +2744,7 @@
         <v>100000</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
@@ -2750,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="34">
         <v>4</v>
@@ -2759,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="34">
         <v>11000</v>
@@ -2819,7 +2821,7 @@
         <v>100000</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
@@ -2827,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="34">
         <v>4</v>
@@ -2836,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="34">
         <v>33000</v>
@@ -2896,7 +2898,7 @@
         <v>100000</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
